--- a/Luban/Configs/Datas/LevelDatas/CardLibraries.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/CardLibraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1859548-1424-4D08-A7DD-C54F69AB46F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4697334-6898-4BBC-AB19-B9397ADB1538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="5020" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -768,164 +768,164 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
-        <v>50000</v>
+        <v>50000000</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F4" s="3">
-        <v>101</v>
+        <v>10000001</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="H4" s="3">
-        <v>101</v>
+        <v>10000001</v>
       </c>
       <c r="I4" s="3">
-        <v>200</v>
+        <v>12000000</v>
       </c>
       <c r="J4" s="3">
-        <v>201</v>
+        <v>12000001</v>
       </c>
       <c r="K4" s="3">
-        <v>202</v>
+        <v>12000002</v>
       </c>
       <c r="L4" s="3">
-        <v>203</v>
+        <v>12000003</v>
       </c>
       <c r="M4" s="3">
-        <v>204</v>
+        <v>12000004</v>
       </c>
       <c r="N4" s="3">
-        <v>205</v>
+        <v>12000005</v>
       </c>
       <c r="O4" s="3">
-        <v>206</v>
+        <v>12000006</v>
       </c>
       <c r="P4" s="3">
-        <v>207</v>
+        <v>12000007</v>
       </c>
       <c r="Q4" s="3">
-        <v>400</v>
+        <v>13000000</v>
       </c>
       <c r="R4" s="3">
-        <v>401</v>
+        <v>13000001</v>
       </c>
       <c r="S4" s="3">
-        <v>402</v>
+        <v>13000002</v>
       </c>
       <c r="T4" s="3">
-        <v>403</v>
+        <v>13000003</v>
       </c>
       <c r="U4" s="3">
-        <v>404</v>
+        <v>13000004</v>
       </c>
       <c r="V4" s="3">
-        <v>405</v>
+        <v>13000005</v>
       </c>
       <c r="W4" s="3">
-        <v>406</v>
+        <v>13000006</v>
       </c>
       <c r="X4" s="3">
-        <v>407</v>
+        <v>13000007</v>
       </c>
       <c r="Y4" s="3">
-        <v>408</v>
+        <v>13000008</v>
       </c>
       <c r="Z4" s="3">
-        <v>409</v>
+        <v>13000009</v>
       </c>
       <c r="AA4" s="3">
-        <v>410</v>
+        <v>13000010</v>
       </c>
       <c r="AB4" s="3">
-        <v>411</v>
+        <v>13000011</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>50001</v>
+        <v>50000001</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F5" s="3">
-        <v>101</v>
+        <v>10000001</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="H5" s="3">
-        <v>101</v>
+        <v>10000001</v>
       </c>
       <c r="I5" s="3">
-        <v>200</v>
+        <v>12000000</v>
       </c>
       <c r="J5" s="3">
-        <v>201</v>
+        <v>12000001</v>
       </c>
       <c r="K5" s="3">
-        <v>202</v>
+        <v>12000002</v>
       </c>
       <c r="L5" s="3">
-        <v>203</v>
+        <v>12000003</v>
       </c>
       <c r="M5" s="3">
-        <v>204</v>
+        <v>12000004</v>
       </c>
       <c r="N5" s="3">
-        <v>205</v>
+        <v>12000005</v>
       </c>
       <c r="O5" s="3">
-        <v>206</v>
+        <v>12000006</v>
       </c>
       <c r="P5" s="3">
-        <v>207</v>
+        <v>12000007</v>
       </c>
       <c r="Q5" s="3">
-        <v>400</v>
+        <v>13000000</v>
       </c>
       <c r="R5" s="3">
-        <v>401</v>
+        <v>13000001</v>
       </c>
       <c r="S5" s="3">
-        <v>402</v>
+        <v>13000002</v>
       </c>
       <c r="T5" s="3">
-        <v>403</v>
+        <v>13000003</v>
       </c>
       <c r="U5" s="3">
-        <v>404</v>
+        <v>13000004</v>
       </c>
       <c r="V5" s="3">
-        <v>405</v>
+        <v>13000005</v>
       </c>
       <c r="W5" s="3">
-        <v>406</v>
+        <v>13000006</v>
       </c>
       <c r="X5" s="3">
-        <v>407</v>
+        <v>13000007</v>
       </c>
       <c r="Y5" s="3">
-        <v>408</v>
+        <v>13000008</v>
       </c>
       <c r="Z5" s="3">
-        <v>409</v>
+        <v>13000009</v>
       </c>
       <c r="AA5" s="3">
-        <v>410</v>
+        <v>13000010</v>
       </c>
       <c r="AB5" s="3">
-        <v>411</v>
+        <v>13000011</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">

--- a/Luban/Configs/Datas/LevelDatas/CardLibraries.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/CardLibraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4697334-6898-4BBC-AB19-B9397ADB1538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138D2C4-19B7-4807-91F6-EFBF1BDD1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="5020" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="3930" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>二个测试卡组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个测试卡组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -573,7 +577,7 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="32" width="8.33203125" customWidth="1"/>
+    <col min="9" max="32" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -846,6 +850,15 @@
       <c r="AB4" s="3">
         <v>13000011</v>
       </c>
+      <c r="AC4">
+        <v>12000008</v>
+      </c>
+      <c r="AD4">
+        <v>12000009</v>
+      </c>
+      <c r="AE4">
+        <v>12000010</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
@@ -929,16 +942,81 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>50000002</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>12000002</v>
+      </c>
+      <c r="L6" s="3">
+        <v>12000003</v>
+      </c>
+      <c r="M6" s="3">
+        <v>12000004</v>
+      </c>
+      <c r="N6" s="3">
+        <v>12000005</v>
+      </c>
+      <c r="O6" s="3">
+        <v>12000006</v>
+      </c>
+      <c r="P6" s="3">
+        <v>12000007</v>
+      </c>
+      <c r="Q6">
+        <v>12000008</v>
+      </c>
+      <c r="R6">
+        <v>12000009</v>
+      </c>
+      <c r="S6">
+        <v>12000010</v>
+      </c>
+      <c r="T6" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="U6" s="3">
+        <v>13000001</v>
+      </c>
+      <c r="V6" s="3">
+        <v>13000002</v>
+      </c>
+      <c r="W6" s="3">
+        <v>13000003</v>
+      </c>
+      <c r="X6" s="3">
+        <v>13000004</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>13000005</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
